--- a/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -13349,7 +13349,7 @@
       </c>
       <c r="G89" s="1"/>
       <c r="I89" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
         <v>345</v>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="G91" s="1"/>
       <c r="I91" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="J91" t="s">
         <v>345</v>
@@ -13754,7 +13754,7 @@
         <v>384</v>
       </c>
       <c r="I99" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
         <v>345</v>
@@ -13794,7 +13794,7 @@
         <v>384</v>
       </c>
       <c r="I100" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="J100" t="s">
         <v>345</v>
